--- a/practicalstat/Book1.xlsx
+++ b/practicalstat/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\satish\practicalstat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFFFE2A-D149-48AE-B963-29B0881385FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1319B1-DD14-4FCF-BC93-64FCFFCBB039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1861F391-008B-4F5C-87B0-6794CBAE2FDA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Problem:</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>=</t>
+  </si>
+  <si>
+    <t>data efficency</t>
   </si>
 </sst>
 </file>
@@ -175,10 +178,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1553,10 +1556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F027EA69-3DE4-4926-A8E9-C9FC85310FC1}">
-  <dimension ref="A1:AH39"/>
+  <dimension ref="A1:AH50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG15" sqref="AG15"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A46" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1574,14 +1577,14 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B2">
@@ -1622,13 +1625,13 @@
       <c r="G3">
         <v>133</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="U3" t="s">
@@ -1639,13 +1642,13 @@
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>10</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>2</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <f>K4*L4</f>
         <v>20</v>
       </c>
@@ -1660,13 +1663,13 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>20</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>3</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <f t="shared" ref="M5:M8" si="0">K5*L5</f>
         <v>60</v>
       </c>
@@ -1684,13 +1687,13 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>30</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>5</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
@@ -1715,17 +1718,17 @@
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="K7" s="4">
+      <c r="B7" s="4"/>
+      <c r="K7" s="3">
         <v>40</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <v>6</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="3">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
@@ -1750,13 +1753,13 @@
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <v>50</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="3">
         <v>7</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="3">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
@@ -1838,16 +1841,16 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="4"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="4"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
@@ -1895,10 +1898,20 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="3"/>
+      <c r="B39" s="4"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/practicalstat/Book1.xlsx
+++ b/practicalstat/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\satish\practicalstat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1319B1-DD14-4FCF-BC93-64FCFFCBB039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5326EC0-A158-43C9-AE7D-9D93F154DA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1861F391-008B-4F5C-87B0-6794CBAE2FDA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
   <si>
     <t>Problem:</t>
   </si>
@@ -115,13 +115,169 @@
   </si>
   <si>
     <t>data efficency</t>
+  </si>
+  <si>
+    <t>Bandwidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Rate </t>
+  </si>
+  <si>
+    <t>step 1</t>
+  </si>
+  <si>
+    <t>go to data</t>
+  </si>
+  <si>
+    <t>step 2</t>
+  </si>
+  <si>
+    <t>step 3</t>
+  </si>
+  <si>
+    <t>step 4</t>
+  </si>
+  <si>
+    <t>step 5</t>
+  </si>
+  <si>
+    <t>step 6</t>
+  </si>
+  <si>
+    <t>select data analysis</t>
+  </si>
+  <si>
+    <t>select correlation option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find correlation </t>
+  </si>
+  <si>
+    <t>select intended data</t>
+  </si>
+  <si>
+    <t>(optional) labeling first</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select output range (where you want output be in) </t>
+  </si>
+  <si>
+    <t>since r = 0.902264443809802 which means there is high degree of positeive correlation between data sixe and efficency</t>
+  </si>
+  <si>
+    <t>step 7</t>
+  </si>
+  <si>
+    <t>step 8</t>
+  </si>
+  <si>
+    <t>press ok and see the reslut</t>
+  </si>
+  <si>
+    <t>coefficent of determination  r2 =</t>
+  </si>
+  <si>
+    <t>correlation</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>RESIDUAL OUTPUT</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predicted Data Rate </t>
+  </si>
+  <si>
+    <t>Residuals</t>
+  </si>
+  <si>
+    <t>Standard Residuals</t>
+  </si>
+  <si>
+    <t>PROBABILITY OUTPUT</t>
+  </si>
+  <si>
+    <t>Percentile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,16 +292,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -168,11 +344,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -184,6 +417,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,6 +804,753 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bandwidth  Residual Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$53:$J$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$94:$L$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.9810581319399105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.4813847158719824</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.6355323318092729</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5963422599608066</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.442194644023516</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4039843239712582</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.6724363161332434</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.6342259960809926</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8638-4595-86E0-B7D1B034D589}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="394761359"/>
+        <c:axId val="394758479"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="394761359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bandwidth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="394758479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="394758479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Residuals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="394761359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bandwidth Line Fit  Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Data Rate </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$53:$J$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$53:$K$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6F38-4BE7-AC3A-450B90C2A963}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Predicted Data Rate </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$53:$J$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$94:$K$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>44.018941868060089</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.481384715871982</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.635532331809273</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.403657740039193</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.557805355976484</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.596015676028742</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.672436316133243</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.634225996080993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6F38-4BE7-AC3A-450B90C2A963}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="394761359"/>
+        <c:axId val="394759439"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="394761359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bandwidth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="394759439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="394759439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Data Rate </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="394761359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Normal Probability Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16966917709031432"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$94:$O$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$94:$P$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1EBC-4E19-80AA-0D425D12F3AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="485244511"/>
+        <c:axId val="485242111"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="485244511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sample Percentile</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="485242111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="485242111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Data Rate </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="485244511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1222,16 +2225,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>641902</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>107679</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>424188</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>162108</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>633619</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>183879</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>415905</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47808</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1251,6 +2254,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>137433</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>153761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>42183</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>182336</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BA290F2-C027-CF78-5C32-6654438FFBA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>69397</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>627290</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>59872</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87C036B8-6D98-A76D-4791-43F1B48F13DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>69397</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>122465</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>55790</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE2545B4-58A7-52F4-E70D-E2EE7F0F4E81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1556,16 +2667,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F027EA69-3DE4-4926-A8E9-C9FC85310FC1}">
-  <dimension ref="A1:AH50"/>
+  <dimension ref="A1:AH101"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A46" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="G86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.5703125" customWidth="1"/>
     <col min="33" max="33" width="10.42578125" customWidth="1"/>
     <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -1897,30 +3009,728 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="4"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J49" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K49" s="5">
+        <v>17</v>
+      </c>
+      <c r="L49" s="5">
+        <v>35</v>
+      </c>
+      <c r="M49" s="5">
+        <v>41</v>
+      </c>
+      <c r="N49" s="5">
+        <v>19</v>
+      </c>
+      <c r="O49" s="5">
+        <v>25</v>
+      </c>
+      <c r="P49" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q49" s="5">
+        <v>10</v>
+      </c>
+      <c r="R49" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>6</v>
       </c>
+      <c r="J50" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K50" s="5">
+        <v>47</v>
+      </c>
+      <c r="L50" s="5">
+        <v>64</v>
+      </c>
+      <c r="M50" s="5">
+        <v>68</v>
+      </c>
+      <c r="N50" s="5">
+        <v>50</v>
+      </c>
+      <c r="O50" s="5">
+        <v>60</v>
+      </c>
+      <c r="P50" s="5">
+        <v>55</v>
+      </c>
+      <c r="Q50" s="5">
+        <v>30</v>
+      </c>
+      <c r="R50" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J52" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P52" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J53" s="5">
+        <v>17</v>
+      </c>
+      <c r="K53" s="5">
+        <v>47</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O53" s="6">
+        <v>1</v>
+      </c>
+      <c r="P53" s="6"/>
+    </row>
+    <row r="54" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J54" s="5">
+        <v>35</v>
+      </c>
+      <c r="K54" s="5">
+        <v>64</v>
+      </c>
+      <c r="N54" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O54" s="7">
+        <v>0.90226444380980197</v>
+      </c>
+      <c r="P54" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J55" s="5">
+        <v>41</v>
+      </c>
+      <c r="K55" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J56" s="5">
+        <v>19</v>
+      </c>
+      <c r="K56" s="5">
+        <v>50</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J57" s="5">
+        <v>25</v>
+      </c>
+      <c r="K57" s="5">
+        <v>60</v>
+      </c>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J58" s="5">
+        <v>20</v>
+      </c>
+      <c r="K58" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J59" s="5">
+        <v>10</v>
+      </c>
+      <c r="K59" s="5">
+        <v>30</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59">
+        <f>O54*O54</f>
+        <v>0.81408112656341125</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J60" s="5">
+        <v>15</v>
+      </c>
+      <c r="K60" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="K62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="12"/>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="K63" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L63" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="12"/>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="K64" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L64" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="12"/>
+    </row>
+    <row r="65" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="K65" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L65" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="12"/>
+    </row>
+    <row r="66" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="K66" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L66" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="12"/>
+    </row>
+    <row r="67" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="K67" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L67" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="12"/>
+    </row>
+    <row r="68" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="K68" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L68" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="12"/>
+    </row>
+    <row r="69" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="K69" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L69" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="12"/>
+    </row>
+    <row r="70" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="K70" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L70" s="10"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="12"/>
+    </row>
+    <row r="71" spans="10:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J71" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J72" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K72" s="13"/>
+    </row>
+    <row r="73" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J73" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K73" s="6">
+        <v>0.9022644438098022</v>
+      </c>
+    </row>
+    <row r="74" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J74" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K74" s="6">
+        <v>0.81408112656341181</v>
+      </c>
+    </row>
+    <row r="75" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J75" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K75" s="6">
+        <v>0.78309464765731374</v>
+      </c>
+    </row>
+    <row r="76" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J76" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K76" s="6">
+        <v>6.4362294076260058</v>
+      </c>
+    </row>
+    <row r="77" spans="10:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J77" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K77" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="10:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J79" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J80" s="8"/>
+      <c r="K80" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L80" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M80" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N80" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O80" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J81" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K81" s="6">
+        <v>1</v>
+      </c>
+      <c r="L81" s="6">
+        <v>1088.3247060744611</v>
+      </c>
+      <c r="M81" s="6">
+        <v>1088.3247060744611</v>
+      </c>
+      <c r="N81" s="6">
+        <v>26.272140472314312</v>
+      </c>
+      <c r="O81" s="6">
+        <v>2.1662428011748639E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J82" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K82" s="6">
+        <v>6</v>
+      </c>
+      <c r="L82" s="6">
+        <v>248.55029392553882</v>
+      </c>
+      <c r="M82" s="6">
+        <v>41.425048987589804</v>
+      </c>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+    </row>
+    <row r="83" spans="10:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J83" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K83" s="7">
+        <v>7</v>
+      </c>
+      <c r="L83" s="7">
+        <v>1336.875</v>
+      </c>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+    </row>
+    <row r="84" spans="10:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J85" s="8"/>
+      <c r="K85" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L85" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M85" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N85" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O85" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P85" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q85" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="R85" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J86" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K86" s="14">
+        <v>23.748856956237749</v>
+      </c>
+      <c r="L86" s="6">
+        <v>5.7607323283050933</v>
+      </c>
+      <c r="M86" s="6">
+        <v>4.1225413025265611</v>
+      </c>
+      <c r="N86" s="6">
+        <v>6.1985644629873387E-3</v>
+      </c>
+      <c r="O86" s="6">
+        <v>9.6528527508340609</v>
+      </c>
+      <c r="P86" s="6">
+        <v>37.844861161641433</v>
+      </c>
+      <c r="Q86" s="6">
+        <v>9.6528527508340609</v>
+      </c>
+      <c r="R86" s="6">
+        <v>37.844861161641433</v>
+      </c>
+    </row>
+    <row r="87" spans="10:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J87" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K87" s="15">
+        <v>1.1923579359895495</v>
+      </c>
+      <c r="L87" s="7">
+        <v>0.23262635606983065</v>
+      </c>
+      <c r="M87" s="7">
+        <v>5.125635616420106</v>
+      </c>
+      <c r="N87" s="7">
+        <v>2.1662428011748639E-3</v>
+      </c>
+      <c r="O87" s="7">
+        <v>0.62314174843361136</v>
+      </c>
+      <c r="P87" s="7">
+        <v>1.7615741235454876</v>
+      </c>
+      <c r="Q87" s="7">
+        <v>0.62314174843361136</v>
+      </c>
+      <c r="R87" s="7">
+        <v>1.7615741235454876</v>
+      </c>
+    </row>
+    <row r="91" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J91" t="s">
+        <v>75</v>
+      </c>
+      <c r="O91" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="10:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J93" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K93" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L93" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M93" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="O93" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P93" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J94" s="6">
+        <v>1</v>
+      </c>
+      <c r="K94" s="6">
+        <v>44.018941868060089</v>
+      </c>
+      <c r="L94" s="6">
+        <v>2.9810581319399105</v>
+      </c>
+      <c r="M94" s="6">
+        <v>0.50027905927581096</v>
+      </c>
+      <c r="O94" s="6">
+        <v>6.25</v>
+      </c>
+      <c r="P94" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J95" s="6">
+        <v>2</v>
+      </c>
+      <c r="K95" s="6">
+        <v>65.481384715871982</v>
+      </c>
+      <c r="L95" s="6">
+        <v>-1.4813847158719824</v>
+      </c>
+      <c r="M95" s="6">
+        <v>-0.24860493129656902</v>
+      </c>
+      <c r="O95" s="6">
+        <v>18.75</v>
+      </c>
+      <c r="P95" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J96" s="6">
+        <v>3</v>
+      </c>
+      <c r="K96" s="6">
+        <v>72.635532331809273</v>
+      </c>
+      <c r="L96" s="6">
+        <v>-4.6355323318092729</v>
+      </c>
+      <c r="M96" s="6">
+        <v>-0.7779317448905404</v>
+      </c>
+      <c r="O96" s="6">
+        <v>31.25</v>
+      </c>
+      <c r="P96" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="97" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J97" s="6">
+        <v>4</v>
+      </c>
+      <c r="K97" s="6">
+        <v>46.403657740039193</v>
+      </c>
+      <c r="L97" s="6">
+        <v>3.5963422599608066</v>
+      </c>
+      <c r="M97" s="6">
+        <v>0.60353560481433188</v>
+      </c>
+      <c r="O97" s="6">
+        <v>43.75</v>
+      </c>
+      <c r="P97" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J98" s="6">
+        <v>5</v>
+      </c>
+      <c r="K98" s="6">
+        <v>53.557805355976484</v>
+      </c>
+      <c r="L98" s="6">
+        <v>6.442194644023516</v>
+      </c>
+      <c r="M98" s="6">
+        <v>1.0811245314718056</v>
+      </c>
+      <c r="O98" s="6">
+        <v>56.25</v>
+      </c>
+      <c r="P98" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="99" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J99" s="6">
+        <v>6</v>
+      </c>
+      <c r="K99" s="6">
+        <v>47.596015676028742</v>
+      </c>
+      <c r="L99" s="6">
+        <v>7.4039843239712582</v>
+      </c>
+      <c r="M99" s="6">
+        <v>1.2425313927302692</v>
+      </c>
+      <c r="O99" s="6">
+        <v>68.75</v>
+      </c>
+      <c r="P99" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J100" s="6">
+        <v>7</v>
+      </c>
+      <c r="K100" s="6">
+        <v>35.672436316133243</v>
+      </c>
+      <c r="L100" s="6">
+        <v>-5.6724363161332434</v>
+      </c>
+      <c r="M100" s="6">
+        <v>-0.95194423538141437</v>
+      </c>
+      <c r="O100" s="6">
+        <v>81.25</v>
+      </c>
+      <c r="P100" s="6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="101" spans="10:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J101" s="7">
+        <v>8</v>
+      </c>
+      <c r="K101" s="7">
+        <v>41.634225996080993</v>
+      </c>
+      <c r="L101" s="7">
+        <v>-8.6342259960809926</v>
+      </c>
+      <c r="M101" s="7">
+        <v>-1.4489896767236941</v>
+      </c>
+      <c r="O101" s="7">
+        <v>93.75</v>
+      </c>
+      <c r="P101" s="7">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P94:P101">
+    <sortCondition ref="P94"/>
+  </sortState>
+  <mergeCells count="16">
+    <mergeCell ref="L70:P70"/>
+    <mergeCell ref="L69:P69"/>
+    <mergeCell ref="L68:P68"/>
+    <mergeCell ref="L67:P67"/>
+    <mergeCell ref="L66:P66"/>
+    <mergeCell ref="L65:P65"/>
+    <mergeCell ref="L64:P64"/>
+    <mergeCell ref="L63:P63"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="K62:P62"/>
+    <mergeCell ref="M56:R57"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A39:B39"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="1.1322463768115942" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
